--- a/LubanTools/Datas/__beans__.xlsx
+++ b/LubanTools/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GDFrame_Qf\LubanTools\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Anonymous\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD2C49-9CAD-49E1-9E46-2EE05E8C47B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACFC47-DCD0-4AF3-9E01-254D029D5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -77,27 +77,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>item.ItemExchange</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>道具id</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>道具数量</t>
   </si>
 </sst>
 </file>
@@ -460,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,34 +533,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>
